--- a/dataanalysis/data/predictions/1600/09291504_1510.xlsx
+++ b/dataanalysis/data/predictions/1600/09291504_1510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-29</t>
   </si>
   <si>
@@ -413,12 +416,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -776,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,19 +882,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.300000000000001</v>
@@ -915,7 +915,7 @@
         <v>899681.38</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -957,10 +957,25 @@
         <v>0.18</v>
       </c>
       <c r="X2" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="Y2">
+        <v>8.75</v>
+      </c>
+      <c r="Z2">
+        <v>91.98</v>
+      </c>
+      <c r="AA2">
+        <v>9.92</v>
       </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -968,22 +983,25 @@
       <c r="AG2">
         <v>4.065860271453857</v>
       </c>
-      <c r="AH2" t="s">
-        <v>133</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300111</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-4.21</v>
@@ -1001,7 +1019,7 @@
         <v>231688.04</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1043,10 +1061,25 @@
         <v>-1.14</v>
       </c>
       <c r="X3" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>10.4</v>
       </c>
       <c r="AC3" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1054,22 +1087,25 @@
       <c r="AG3">
         <v>1.684383869171143</v>
       </c>
-      <c r="AH3" t="s">
-        <v>133</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>10.47</v>
@@ -1087,7 +1123,7 @@
         <v>767112.29</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1129,10 +1165,25 @@
         <v>0.4</v>
       </c>
       <c r="X4" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y4">
+        <v>0.53</v>
+      </c>
+      <c r="Z4">
+        <v>42.52</v>
+      </c>
+      <c r="AA4">
+        <v>2.56</v>
       </c>
       <c r="AC4" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1140,22 +1191,25 @@
       <c r="AG4">
         <v>-13.30500793457031</v>
       </c>
-      <c r="AH4" t="s">
-        <v>134</v>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.01</v>
@@ -1173,7 +1227,7 @@
         <v>466166.68</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -1215,10 +1269,25 @@
         <v>-0.26</v>
       </c>
       <c r="X5" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y5">
+        <v>-2.17</v>
+      </c>
+      <c r="Z5">
+        <v>35.43</v>
+      </c>
+      <c r="AA5">
+        <v>2.58</v>
       </c>
       <c r="AC5" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1226,22 +1295,25 @@
       <c r="AG5">
         <v>5.723441600799561</v>
       </c>
-      <c r="AH5" t="s">
-        <v>133</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300209</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1259,7 +1331,7 @@
         <v>46431.54</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1301,10 +1373,25 @@
         <v>-0.82</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="Y6">
+        <v>-4.47</v>
+      </c>
+      <c r="Z6">
+        <v>6.9</v>
+      </c>
+      <c r="AA6">
+        <v>-0.43</v>
       </c>
       <c r="AC6" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1312,22 +1399,25 @@
       <c r="AG6">
         <v>5.177197456359863</v>
       </c>
-      <c r="AH6" t="s">
-        <v>133</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300250</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1345,7 +1435,7 @@
         <v>141953.57</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1387,10 +1477,25 @@
         <v>5.72</v>
       </c>
       <c r="X7" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y7">
+        <v>3.03</v>
+      </c>
+      <c r="Z7">
+        <v>28.2</v>
+      </c>
+      <c r="AA7">
+        <v>6.82</v>
       </c>
       <c r="AC7" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1398,22 +1503,25 @@
       <c r="AG7">
         <v>10.1529483795166</v>
       </c>
-      <c r="AH7" t="s">
-        <v>133</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300270</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-5.98</v>
@@ -1431,7 +1539,7 @@
         <v>46874.98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1473,10 +1581,25 @@
         <v>-0.25</v>
       </c>
       <c r="X8" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y8">
+        <v>-3.08</v>
+      </c>
+      <c r="Z8">
+        <v>10.67</v>
+      </c>
+      <c r="AA8">
+        <v>2.79</v>
       </c>
       <c r="AC8" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1484,22 +1607,25 @@
       <c r="AG8">
         <v>4.567018032073975</v>
       </c>
-      <c r="AH8" t="s">
-        <v>133</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.76</v>
@@ -1517,7 +1643,7 @@
         <v>1646822.4</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>19</v>
@@ -1559,10 +1685,25 @@
         <v>0.11</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y9">
+        <v>-1.83</v>
+      </c>
+      <c r="Z9">
+        <v>167.69</v>
+      </c>
+      <c r="AA9">
+        <v>1.63</v>
       </c>
       <c r="AC9" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1570,22 +1711,25 @@
       <c r="AG9">
         <v>4.064953804016113</v>
       </c>
-      <c r="AH9" t="s">
-        <v>133</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300432</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>6.68</v>
@@ -1603,7 +1747,7 @@
         <v>325255.5</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1645,10 +1789,25 @@
         <v>0.98</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y10">
+        <v>19.98</v>
+      </c>
+      <c r="Z10">
+        <v>22.22</v>
+      </c>
+      <c r="AA10">
+        <v>19.98</v>
       </c>
       <c r="AC10" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1656,22 +1815,25 @@
       <c r="AG10">
         <v>5.385566234588623</v>
       </c>
-      <c r="AH10" t="s">
-        <v>133</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300475</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>8.23</v>
@@ -1689,7 +1851,7 @@
         <v>349039.74</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1731,10 +1893,25 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y11">
+        <v>8.31</v>
+      </c>
+      <c r="Z11">
+        <v>95</v>
+      </c>
+      <c r="AA11">
+        <v>12.75</v>
       </c>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1742,22 +1919,25 @@
       <c r="AG11">
         <v>4.542830944061279</v>
       </c>
-      <c r="AH11" t="s">
-        <v>133</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300490</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>3.9</v>
@@ -1775,7 +1955,7 @@
         <v>119584.74</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1817,10 +1997,25 @@
         <v>1.28</v>
       </c>
       <c r="X12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y12">
+        <v>2.99</v>
+      </c>
+      <c r="Z12">
+        <v>13.98</v>
+      </c>
+      <c r="AA12">
+        <v>7.13</v>
       </c>
       <c r="AC12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1828,22 +2023,25 @@
       <c r="AG12">
         <v>6.088120937347412</v>
       </c>
-      <c r="AH12" t="s">
-        <v>133</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300502</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.82</v>
@@ -1861,7 +2059,7 @@
         <v>1604754.23</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1903,10 +2101,25 @@
         <v>0.16</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y13">
+        <v>-5.8</v>
+      </c>
+      <c r="Z13">
+        <v>395</v>
+      </c>
+      <c r="AA13">
+        <v>1.73</v>
       </c>
       <c r="AC13" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1914,22 +2127,25 @@
       <c r="AG13">
         <v>-6.130410671234131</v>
       </c>
-      <c r="AH13" t="s">
-        <v>133</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.6899999999999999</v>
@@ -1947,7 +2163,7 @@
         <v>50263.33</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>17</v>
@@ -1989,10 +2205,25 @@
         <v>0.17</v>
       </c>
       <c r="X14" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y14">
+        <v>-1.06</v>
+      </c>
+      <c r="Z14">
+        <v>48.49</v>
+      </c>
+      <c r="AA14">
+        <v>2.78</v>
       </c>
       <c r="AC14" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2000,22 +2231,25 @@
       <c r="AG14">
         <v>-1.358811736106873</v>
       </c>
-      <c r="AH14" t="s">
-        <v>133</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300604</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>8.91</v>
@@ -2033,7 +2267,7 @@
         <v>1104670.41</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>24</v>
@@ -2075,10 +2309,25 @@
         <v>1.08</v>
       </c>
       <c r="X15" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y15">
+        <v>-4.32</v>
+      </c>
+      <c r="Z15">
+        <v>107.66</v>
+      </c>
+      <c r="AA15">
+        <v>3.4</v>
       </c>
       <c r="AC15" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2086,22 +2335,25 @@
       <c r="AG15">
         <v>2.274772882461548</v>
       </c>
-      <c r="AH15" t="s">
-        <v>133</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300618</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.78</v>
@@ -2119,7 +2371,7 @@
         <v>177676.77</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16">
         <v>17</v>
@@ -2160,8 +2412,23 @@
       <c r="W16">
         <v>0.22</v>
       </c>
+      <c r="Y16">
+        <v>5.33</v>
+      </c>
+      <c r="Z16">
+        <v>58.88</v>
+      </c>
+      <c r="AA16">
+        <v>10.59</v>
+      </c>
       <c r="AC16" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2169,22 +2436,25 @@
       <c r="AG16">
         <v>-0.05545846372842789</v>
       </c>
-      <c r="AH16" t="s">
-        <v>133</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300650</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.82</v>
@@ -2202,7 +2472,7 @@
         <v>73004.44</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2244,10 +2514,25 @@
         <v>0.71</v>
       </c>
       <c r="X17" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y17">
+        <v>0.98</v>
+      </c>
+      <c r="Z17">
+        <v>22.5</v>
+      </c>
+      <c r="AA17">
+        <v>4.51</v>
       </c>
       <c r="AC17" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2255,22 +2540,25 @@
       <c r="AG17">
         <v>2.719807386398315</v>
       </c>
-      <c r="AH17" t="s">
-        <v>133</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300666</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.96</v>
@@ -2288,7 +2576,7 @@
         <v>372432.84</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2330,10 +2618,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X18" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y18">
+        <v>-4.86</v>
+      </c>
+      <c r="Z18">
+        <v>107.46</v>
+      </c>
+      <c r="AA18">
+        <v>0.34</v>
       </c>
       <c r="AC18" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2341,22 +2644,25 @@
       <c r="AG18">
         <v>10.80843257904053</v>
       </c>
-      <c r="AH18" t="s">
-        <v>133</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300680</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.65</v>
@@ -2374,7 +2680,7 @@
         <v>86762.52</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19">
         <v>13</v>
@@ -2416,10 +2722,25 @@
         <v>-0.35</v>
       </c>
       <c r="X19" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y19">
+        <v>-2.99</v>
+      </c>
+      <c r="Z19">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>-0.29</v>
       </c>
       <c r="AC19" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2427,22 +2748,25 @@
       <c r="AG19">
         <v>2.790794134140015</v>
       </c>
-      <c r="AH19" t="s">
-        <v>133</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300792</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>3.28</v>
@@ -2460,7 +2784,7 @@
         <v>82268.32000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2502,10 +2826,25 @@
         <v>0.88</v>
       </c>
       <c r="X20" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y20">
+        <v>1.92</v>
+      </c>
+      <c r="Z20">
+        <v>35.54</v>
+      </c>
+      <c r="AA20">
+        <v>3.49</v>
       </c>
       <c r="AC20" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2513,22 +2852,25 @@
       <c r="AG20">
         <v>-0.8786537647247314</v>
       </c>
-      <c r="AH20" t="s">
-        <v>134</v>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300803</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>9.779999999999999</v>
@@ -2546,7 +2888,7 @@
         <v>1109256.6</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21">
         <v>35</v>
@@ -2588,10 +2930,25 @@
         <v>1.21</v>
       </c>
       <c r="X21" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y21">
+        <v>0.19</v>
+      </c>
+      <c r="Z21">
+        <v>169.9</v>
+      </c>
+      <c r="AA21">
+        <v>1.85</v>
       </c>
       <c r="AC21" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2599,22 +2956,25 @@
       <c r="AG21">
         <v>-11.7675666809082</v>
       </c>
-      <c r="AH21" t="s">
-        <v>133</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300827</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>8.94</v>
@@ -2632,7 +2992,7 @@
         <v>272750.77</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>18</v>
@@ -2674,10 +3034,25 @@
         <v>1.16</v>
       </c>
       <c r="X22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y22">
+        <v>3.65</v>
+      </c>
+      <c r="Z22">
+        <v>37.94</v>
+      </c>
+      <c r="AA22">
+        <v>7.39</v>
       </c>
       <c r="AC22" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2685,22 +3060,25 @@
       <c r="AG22">
         <v>1.07992696762085</v>
       </c>
-      <c r="AH22" t="s">
-        <v>133</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300857</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>12.25</v>
@@ -2718,7 +3096,7 @@
         <v>407115.6</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2760,10 +3138,25 @@
         <v>0.47</v>
       </c>
       <c r="X23" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y23">
+        <v>0.45</v>
+      </c>
+      <c r="Z23">
+        <v>183.95</v>
+      </c>
+      <c r="AA23">
+        <v>1.53</v>
       </c>
       <c r="AC23" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2771,22 +3164,25 @@
       <c r="AG23">
         <v>-11.22757053375244</v>
       </c>
-      <c r="AH23" t="s">
-        <v>133</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300959</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>11.9</v>
@@ -2804,7 +3200,7 @@
         <v>118733.75</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2846,10 +3242,25 @@
         <v>-1.58</v>
       </c>
       <c r="X24" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y24">
+        <v>15.08</v>
+      </c>
+      <c r="Z24">
+        <v>98.88</v>
+      </c>
+      <c r="AA24">
+        <v>17.53</v>
       </c>
       <c r="AC24" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2857,22 +3268,25 @@
       <c r="AG24">
         <v>-2.752362251281738</v>
       </c>
-      <c r="AH24" t="s">
-        <v>133</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300969</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.79</v>
@@ -2890,7 +3304,7 @@
         <v>36977.27</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -2932,10 +3346,25 @@
         <v>0.18</v>
       </c>
       <c r="X25" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y25">
+        <v>-1.44</v>
+      </c>
+      <c r="Z25">
+        <v>131.9</v>
+      </c>
+      <c r="AA25">
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC25" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2943,22 +3372,25 @@
       <c r="AG25">
         <v>1.820843100547791</v>
       </c>
-      <c r="AH25" t="s">
-        <v>133</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301013</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.56</v>
@@ -2976,7 +3408,7 @@
         <v>193997.5</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3018,10 +3450,25 @@
         <v>-1.14</v>
       </c>
       <c r="X26" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y26">
+        <v>-5.37</v>
+      </c>
+      <c r="Z26">
+        <v>33.08</v>
+      </c>
+      <c r="AA26">
+        <v>7.58</v>
       </c>
       <c r="AC26" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3029,22 +3476,25 @@
       <c r="AG26">
         <v>17.58091354370117</v>
       </c>
-      <c r="AH26" t="s">
-        <v>133</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301031</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>4.08</v>
@@ -3062,7 +3512,7 @@
         <v>56305.54</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>21</v>
@@ -3103,8 +3553,23 @@
       <c r="W27">
         <v>0.62</v>
       </c>
+      <c r="Y27">
+        <v>3.8</v>
+      </c>
+      <c r="Z27">
+        <v>123.77</v>
+      </c>
+      <c r="AA27">
+        <v>4.87</v>
+      </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3112,22 +3577,25 @@
       <c r="AG27">
         <v>-1.321773052215576</v>
       </c>
-      <c r="AH27" t="s">
-        <v>133</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301086</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>9.31</v>
@@ -3145,7 +3613,7 @@
         <v>59079.07</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3187,10 +3655,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X28" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y28">
+        <v>-3.73</v>
+      </c>
+      <c r="Z28">
+        <v>86.8</v>
+      </c>
+      <c r="AA28">
+        <v>1.17</v>
       </c>
       <c r="AC28" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3198,22 +3681,25 @@
       <c r="AG28">
         <v>4.698485374450684</v>
       </c>
-      <c r="AH28" t="s">
-        <v>133</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301308</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.22</v>
@@ -3231,7 +3717,7 @@
         <v>255001.98</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3273,10 +3759,25 @@
         <v>0.55</v>
       </c>
       <c r="X29" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y29">
+        <v>20</v>
+      </c>
+      <c r="Z29">
+        <v>178.03</v>
+      </c>
+      <c r="AA29">
+        <v>20</v>
       </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3284,22 +3785,25 @@
       <c r="AG29">
         <v>2.806739091873169</v>
       </c>
-      <c r="AH29" t="s">
-        <v>133</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301326</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.71</v>
@@ -3317,7 +3821,7 @@
         <v>29745.63</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3358,8 +3862,23 @@
       <c r="W30">
         <v>-0.44</v>
       </c>
+      <c r="Y30">
+        <v>-2.16</v>
+      </c>
+      <c r="Z30">
+        <v>135</v>
+      </c>
+      <c r="AA30">
+        <v>7.4</v>
+      </c>
       <c r="AC30" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3367,22 +3886,25 @@
       <c r="AG30">
         <v>0.6213532090187073</v>
       </c>
-      <c r="AH30" t="s">
-        <v>133</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301358</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>18.29</v>
@@ -3400,7 +3922,7 @@
         <v>252645.04</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3442,10 +3964,25 @@
         <v>-1.29</v>
       </c>
       <c r="X31" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y31">
+        <v>12.01</v>
+      </c>
+      <c r="Z31">
+        <v>62.27</v>
+      </c>
+      <c r="AA31">
+        <v>15.44</v>
       </c>
       <c r="AC31" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3453,22 +3990,25 @@
       <c r="AG31">
         <v>12.14367771148682</v>
       </c>
-      <c r="AH31" t="s">
-        <v>133</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301421</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>4.06</v>
@@ -3486,7 +4026,7 @@
         <v>156990.28</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3528,10 +4068,25 @@
         <v>1.01</v>
       </c>
       <c r="X32" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y32">
+        <v>7.88</v>
+      </c>
+      <c r="Z32">
+        <v>132.28</v>
+      </c>
+      <c r="AA32">
+        <v>9.81</v>
       </c>
       <c r="AC32" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3539,22 +4094,25 @@
       <c r="AG32">
         <v>2.738467931747437</v>
       </c>
-      <c r="AH32" t="s">
-        <v>133</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301525</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>11.11</v>
@@ -3572,7 +4130,7 @@
         <v>77497.09</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3614,10 +4172,25 @@
         <v>-0.37</v>
       </c>
       <c r="X33" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y33">
+        <v>-6.53</v>
+      </c>
+      <c r="Z33">
+        <v>117</v>
+      </c>
+      <c r="AA33">
+        <v>-0.89</v>
       </c>
       <c r="AC33" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3625,22 +4198,25 @@
       <c r="AG33">
         <v>8.129372596740723</v>
       </c>
-      <c r="AH33" t="s">
-        <v>133</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688028</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.72</v>
@@ -3658,7 +4234,7 @@
         <v>40657.64</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K34">
         <v>16</v>
@@ -3700,10 +4276,25 @@
         <v>-0.01</v>
       </c>
       <c r="X34" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y34">
+        <v>-5.02</v>
+      </c>
+      <c r="Z34">
+        <v>52.32</v>
+      </c>
+      <c r="AA34">
+        <v>0.63</v>
       </c>
       <c r="AC34" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3711,22 +4302,25 @@
       <c r="AG34">
         <v>5.659858226776123</v>
       </c>
-      <c r="AH34" t="s">
-        <v>133</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688123</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.52</v>
@@ -3744,7 +4338,7 @@
         <v>230401.74</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3786,10 +4380,25 @@
         <v>0.6</v>
       </c>
       <c r="X35" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y35">
+        <v>10.47</v>
+      </c>
+      <c r="Z35">
+        <v>167.95</v>
+      </c>
+      <c r="AA35">
+        <v>14.2</v>
       </c>
       <c r="AC35" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3797,22 +4406,25 @@
       <c r="AG35">
         <v>2.008903741836548</v>
       </c>
-      <c r="AH35" t="s">
-        <v>133</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688141</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.58</v>
@@ -3830,7 +4442,7 @@
         <v>74816.44</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K36">
         <v>19</v>
@@ -3872,10 +4484,25 @@
         <v>-0.05</v>
       </c>
       <c r="X36" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y36">
+        <v>0.17</v>
+      </c>
+      <c r="Z36">
+        <v>59.99</v>
+      </c>
+      <c r="AA36">
+        <v>3.52</v>
       </c>
       <c r="AC36" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3883,22 +4510,25 @@
       <c r="AG36">
         <v>1.915462970733643</v>
       </c>
-      <c r="AH36" t="s">
-        <v>133</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688147</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>7.1</v>
@@ -3916,7 +4546,7 @@
         <v>84326.45</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K37">
         <v>31</v>
@@ -3958,10 +4588,25 @@
         <v>1.45</v>
       </c>
       <c r="X37" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y37">
+        <v>4.25</v>
+      </c>
+      <c r="Z37">
+        <v>60.5</v>
+      </c>
+      <c r="AA37">
+        <v>7.5</v>
       </c>
       <c r="AC37" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3969,22 +4614,25 @@
       <c r="AG37">
         <v>-1.824333906173706</v>
       </c>
-      <c r="AH37" t="s">
-        <v>133</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688233</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-0.22</v>
@@ -4002,7 +4650,7 @@
         <v>61899.55</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4044,10 +4692,25 @@
         <v>0.01</v>
       </c>
       <c r="X38" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y38">
+        <v>12.32</v>
+      </c>
+      <c r="Z38">
+        <v>52.86</v>
+      </c>
+      <c r="AA38">
+        <v>16.95</v>
       </c>
       <c r="AC38" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4055,22 +4718,25 @@
       <c r="AG38">
         <v>3.046050071716309</v>
       </c>
-      <c r="AH38" t="s">
-        <v>133</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688249</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.34</v>
@@ -4088,7 +4754,7 @@
         <v>393150.36</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4130,10 +4796,25 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X39" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y39">
+        <v>3.5</v>
+      </c>
+      <c r="Z39">
+        <v>35.56</v>
+      </c>
+      <c r="AA39">
+        <v>5.61</v>
       </c>
       <c r="AC39" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4141,22 +4822,25 @@
       <c r="AG39">
         <v>18.84231376647949</v>
       </c>
-      <c r="AH39" t="s">
-        <v>133</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688332</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>8.51</v>
@@ -4174,7 +4858,7 @@
         <v>151519.39</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4216,10 +4900,25 @@
         <v>0.38</v>
       </c>
       <c r="X40" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y40">
+        <v>6.38</v>
+      </c>
+      <c r="Z40">
+        <v>168.88</v>
+      </c>
+      <c r="AA40">
+        <v>9.529999999999999</v>
       </c>
       <c r="AC40" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4227,22 +4926,25 @@
       <c r="AG40">
         <v>2.499617338180542</v>
       </c>
-      <c r="AH40" t="s">
-        <v>133</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688335</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -4260,7 +4962,7 @@
         <v>74876.7</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4301,8 +5003,23 @@
       <c r="W41">
         <v>0.21</v>
       </c>
+      <c r="Y41">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>35.45</v>
+      </c>
+      <c r="AA41">
+        <v>6.26</v>
+      </c>
       <c r="AC41" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4310,22 +5027,25 @@
       <c r="AG41">
         <v>9.417219161987305</v>
       </c>
-      <c r="AH41" t="s">
-        <v>134</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688347</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.37</v>
@@ -4343,7 +5063,7 @@
         <v>288147.43</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K42">
         <v>13</v>
@@ -4385,10 +5105,25 @@
         <v>-0.2</v>
       </c>
       <c r="X42" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y42">
+        <v>15.72</v>
+      </c>
+      <c r="Z42">
+        <v>117.89</v>
+      </c>
+      <c r="AA42">
+        <v>19.08</v>
       </c>
       <c r="AC42" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4396,22 +5131,25 @@
       <c r="AG42">
         <v>4.788155078887939</v>
       </c>
-      <c r="AH42" t="s">
-        <v>133</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688388</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>6.92</v>
@@ -4429,7 +5167,7 @@
         <v>124344.69</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43">
         <v>20</v>
@@ -4471,10 +5209,25 @@
         <v>-0.11</v>
       </c>
       <c r="X43" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y43">
+        <v>3.39</v>
+      </c>
+      <c r="Z43">
+        <v>38.5</v>
+      </c>
+      <c r="AA43">
+        <v>6.09</v>
       </c>
       <c r="AC43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4482,22 +5235,25 @@
       <c r="AG43">
         <v>-0.725987434387207</v>
       </c>
-      <c r="AH43" t="s">
-        <v>133</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688403</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.26</v>
@@ -4515,7 +5271,7 @@
         <v>117691.6</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4557,10 +5313,25 @@
         <v>0.08</v>
       </c>
       <c r="X44" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y44">
+        <v>2.54</v>
+      </c>
+      <c r="Z44">
+        <v>19.86</v>
+      </c>
+      <c r="AA44">
+        <v>5.25</v>
       </c>
       <c r="AC44" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4568,22 +5339,25 @@
       <c r="AG44">
         <v>4.390920639038086</v>
       </c>
-      <c r="AH44" t="s">
-        <v>133</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688409</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>1.35</v>
@@ -4601,7 +5375,7 @@
         <v>47820.63</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4643,10 +5417,25 @@
         <v>-0.17</v>
       </c>
       <c r="X45" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y45">
+        <v>2.1</v>
+      </c>
+      <c r="Z45">
+        <v>76.89</v>
+      </c>
+      <c r="AA45">
+        <v>5.69</v>
       </c>
       <c r="AC45" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4654,22 +5443,25 @@
       <c r="AG45">
         <v>3.99845027923584</v>
       </c>
-      <c r="AH45" t="s">
-        <v>133</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688411</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>15.02</v>
@@ -4687,7 +5479,7 @@
         <v>156371.98</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K46">
         <v>20</v>
@@ -4729,10 +5521,25 @@
         <v>0.09</v>
       </c>
       <c r="X46" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y46">
+        <v>5.46</v>
+      </c>
+      <c r="Z46">
+        <v>345.55</v>
+      </c>
+      <c r="AA46">
+        <v>12.51</v>
       </c>
       <c r="AC46" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4740,22 +5547,25 @@
       <c r="AG46">
         <v>8.44939136505127</v>
       </c>
-      <c r="AH46" t="s">
-        <v>133</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688498</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>12.08</v>
@@ -4773,7 +5583,7 @@
         <v>197857.68</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K47">
         <v>14</v>
@@ -4815,10 +5625,25 @@
         <v>0.18</v>
       </c>
       <c r="X47" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y47">
+        <v>4.58</v>
+      </c>
+      <c r="Z47">
+        <v>440</v>
+      </c>
+      <c r="AA47">
+        <v>7.26</v>
       </c>
       <c r="AC47" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4826,22 +5651,25 @@
       <c r="AG47">
         <v>4.825701713562012</v>
       </c>
-      <c r="AH47" t="s">
-        <v>133</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688503</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.52</v>
@@ -4859,7 +5687,7 @@
         <v>237298.71</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4901,10 +5729,25 @@
         <v>-0.62</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y48">
+        <v>-1.28</v>
+      </c>
+      <c r="Z48">
+        <v>84.81</v>
+      </c>
+      <c r="AA48">
+        <v>2.18</v>
       </c>
       <c r="AC48" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4912,22 +5755,25 @@
       <c r="AG48">
         <v>-1.028747320175171</v>
       </c>
-      <c r="AH48" t="s">
-        <v>133</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688525</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>5.85</v>
@@ -4945,7 +5791,7 @@
         <v>350302.49</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4987,10 +5833,25 @@
         <v>-0.24</v>
       </c>
       <c r="X49" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y49">
+        <v>9.34</v>
+      </c>
+      <c r="Z49">
+        <v>109.5</v>
+      </c>
+      <c r="AA49">
+        <v>14.79</v>
       </c>
       <c r="AC49" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4998,22 +5859,25 @@
       <c r="AG49">
         <v>-9.157112121582031</v>
       </c>
-      <c r="AH49" t="s">
-        <v>133</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688545</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.6899999999999999</v>
@@ -5031,7 +5895,7 @@
         <v>54062.05</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -5073,10 +5937,25 @@
         <v>-0.51</v>
       </c>
       <c r="X50" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y50">
+        <v>9.5</v>
+      </c>
+      <c r="Z50">
+        <v>43.09</v>
+      </c>
+      <c r="AA50">
+        <v>14.33</v>
       </c>
       <c r="AC50" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5084,22 +5963,25 @@
       <c r="AG50">
         <v>2.436353445053101</v>
       </c>
-      <c r="AH50" t="s">
-        <v>133</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688627</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>8.09</v>
@@ -5117,7 +5999,7 @@
         <v>140164.98</v>
       </c>
       <c r="J51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K51">
         <v>12</v>
@@ -5159,10 +6041,25 @@
         <v>-0.48</v>
       </c>
       <c r="X51" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y51">
+        <v>-3.21</v>
+      </c>
+      <c r="Z51">
+        <v>193.99</v>
+      </c>
+      <c r="AA51">
+        <v>3.74</v>
       </c>
       <c r="AC51" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5170,22 +6067,25 @@
       <c r="AG51">
         <v>-12.29127597808838</v>
       </c>
-      <c r="AH51" t="s">
-        <v>133</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688652</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>9.18</v>
@@ -5203,7 +6103,7 @@
         <v>85915.03999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5245,10 +6145,25 @@
         <v>-0.15</v>
       </c>
       <c r="X52" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y52">
+        <v>-6.21</v>
+      </c>
+      <c r="Z52">
+        <v>117.33</v>
+      </c>
+      <c r="AA52">
+        <v>9.15</v>
       </c>
       <c r="AC52" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5256,22 +6171,25 @@
       <c r="AG52">
         <v>0.9896979928016663</v>
       </c>
-      <c r="AH52" t="s">
-        <v>133</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688981</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>2.84</v>
@@ -5289,7 +6207,7 @@
         <v>1362756.61</v>
       </c>
       <c r="J53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K53">
         <v>13</v>
@@ -5331,10 +6249,25 @@
         <v>-0.05</v>
       </c>
       <c r="X53" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y53">
+        <v>3.02</v>
+      </c>
+      <c r="Z53">
+        <v>142</v>
+      </c>
+      <c r="AA53">
+        <v>4.4</v>
       </c>
       <c r="AC53" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5342,8 +6275,11 @@
       <c r="AG53">
         <v>37.10449981689453</v>
       </c>
-      <c r="AH53" t="s">
-        <v>133</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
